--- a/data/probe_data_day2.xlsx
+++ b/data/probe_data_day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb15237/Documents/Conferences/2022vVMSG/vVMSG2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E6D71F-0996-064C-8640-507F3763DEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8B3830-FF5E-2A40-B8CB-EB2BC0DA3E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{619C6C10-99EE-4B04-874A-3D38B2A736D5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{619C6C10-99EE-4B04-874A-3D38B2A736D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -336,640 +336,640 @@
     <t>Mn STD NAM</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl3</t>
+    <t>MZ18066_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl4</t>
+    <t>MZ18066_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl5</t>
+    <t>MZ18066_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl6</t>
+    <t>MZ18066_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl7</t>
+    <t>MZ18066_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl8</t>
+    <t>MZ18066_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18066_mag1_MI</t>
+    <t>MZ18066_mag1_MI</t>
   </si>
   <si>
-    <t>MZ_18066_mag8_gl</t>
+    <t>MZ18066_mag8_gl</t>
   </si>
   <si>
-    <t>MZ_18066_mag15_MI</t>
+    <t>MZ18066_mag15_MI</t>
   </si>
   <si>
-    <t>MZ_18066_mag15_gl</t>
+    <t>MZ18066_mag15_gl</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl9</t>
+    <t>MZ18066_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18066_mag10_gl</t>
+    <t>MZ18066_mag10_gl</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl10</t>
+    <t>MZ18066_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl11</t>
+    <t>MZ18066_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl12</t>
+    <t>MZ18066_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl13</t>
+    <t>MZ18066_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl14</t>
+    <t>MZ18066_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl15</t>
+    <t>MZ18066_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18066_ilm10_gl1</t>
+    <t>MZ18066_ilm10_gl1</t>
   </si>
   <si>
-    <t>MZ_18066_ilm10_gl2</t>
+    <t>MZ18066_ilm10_gl2</t>
   </si>
   <si>
-    <t>MZ_18066_mag20_MI</t>
+    <t>MZ18066_mag20_MI</t>
   </si>
   <si>
-    <t>MZ_18066_mag_gl16</t>
+    <t>MZ18066_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18066_mag14_gl2</t>
+    <t>MZ18066_mag14_gl2</t>
   </si>
   <si>
-    <t>MZ_18066_mag13_MI</t>
+    <t>MZ18066_mag13_MI</t>
   </si>
   <si>
-    <t>MZ_18066_mag14_gl1</t>
+    <t>MZ18066_mag14_gl1</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl1</t>
+    <t>MZ18065_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl2</t>
+    <t>MZ18065_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl3</t>
+    <t>MZ18065_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl4</t>
+    <t>MZ18065_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl5</t>
+    <t>MZ18065_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl6</t>
+    <t>MZ18065_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18065_mag03_MI</t>
+    <t>MZ18065_mag03_MI</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl7</t>
+    <t>MZ18065_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl8</t>
+    <t>MZ18065_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl9</t>
+    <t>MZ18065_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl10</t>
+    <t>MZ18065_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl11</t>
+    <t>MZ18065_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl12</t>
+    <t>MZ18065_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl13</t>
+    <t>MZ18065_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl14</t>
+    <t>MZ18065_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18065_mag19_gl1</t>
+    <t>MZ18065_mag19_gl1</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl15</t>
+    <t>MZ18065_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl16</t>
+    <t>MZ18065_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl17</t>
+    <t>MZ18065_mag_gl17</t>
   </si>
   <si>
-    <t>MZ_18062_tp1H_gl</t>
+    <t>MZ18062_tp1H_gl</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl18</t>
+    <t>MZ18065_mag_gl18</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl19</t>
+    <t>MZ18065_mag_gl19</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl20</t>
+    <t>MZ18065_mag_gl20</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl21</t>
+    <t>MZ18065_mag_gl21</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl22</t>
+    <t>MZ18065_mag_gl22</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl23</t>
+    <t>MZ18065_mag_gl23</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl24</t>
+    <t>MZ18065_mag_gl24</t>
   </si>
   <si>
-    <t>MZ_18065_mag_gl25</t>
+    <t>MZ18065_mag_gl25</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl1</t>
+    <t>MZ18064_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18064_mag03_gl</t>
+    <t>MZ18064_mag03_gl</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl2</t>
+    <t>MZ18064_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl3</t>
+    <t>MZ18064_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl4</t>
+    <t>MZ18064_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl5</t>
+    <t>MZ18064_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl6</t>
+    <t>MZ18064_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl7</t>
+    <t>MZ18064_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl8</t>
+    <t>MZ18064_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl9</t>
+    <t>MZ18064_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl10</t>
+    <t>MZ18064_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl11</t>
+    <t>MZ18064_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl12</t>
+    <t>MZ18064_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl13</t>
+    <t>MZ18064_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl14</t>
+    <t>MZ18064_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl15</t>
+    <t>MZ18064_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl16</t>
+    <t>MZ18064_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl17</t>
+    <t>MZ18064_mag_gl17</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl18</t>
+    <t>MZ18064_mag_gl18</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl19</t>
+    <t>MZ18064_mag_gl19</t>
   </si>
   <si>
-    <t>MZ_18064_mag_MI1</t>
+    <t>MZ18064_mag_MI1</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl20</t>
+    <t>MZ18064_mag_gl20</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl21</t>
+    <t>MZ18064_mag_gl21</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl22</t>
+    <t>MZ18064_mag_gl22</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl23</t>
+    <t>MZ18064_mag_gl23</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl24</t>
+    <t>MZ18064_mag_gl24</t>
   </si>
   <si>
-    <t>MZ_18064_mag_gl25</t>
+    <t>MZ18064_mag_gl25</t>
   </si>
   <si>
-    <t>MZ_18063_tp3_MI</t>
+    <t>MZ18063_tp3_MI</t>
   </si>
   <si>
-    <t>MZ_18063_mag14_gl</t>
+    <t>MZ18063_mag14_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag18_MI</t>
+    <t>MZ18063_mag18_MI</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl1</t>
+    <t>MZ18063_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18063_mag17_gl</t>
+    <t>MZ18063_mag17_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl2</t>
+    <t>MZ18063_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl3</t>
+    <t>MZ18063_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl4</t>
+    <t>MZ18063_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl5</t>
+    <t>MZ18063_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18063_mag_MI1</t>
+    <t>MZ18063_mag_MI1</t>
   </si>
   <si>
-    <t>MZ_18063_tp8_gl</t>
+    <t>MZ18063_tp8_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag08_gl</t>
+    <t>MZ18063_mag08_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl6</t>
+    <t>MZ18063_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl7</t>
+    <t>MZ18063_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18063_mag03_gl</t>
+    <t>MZ18063_mag03_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag04_gl</t>
+    <t>MZ18063_mag04_gl</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl8</t>
+    <t>MZ18063_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl9</t>
+    <t>MZ18063_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl10</t>
+    <t>MZ18063_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl11</t>
+    <t>MZ18063_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18063_mag_MI2</t>
+    <t>MZ18063_mag_MI2</t>
   </si>
   <si>
-    <t>MZ_18063_mag_MI3</t>
+    <t>MZ18063_mag_MI3</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl12</t>
+    <t>MZ18063_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18063_mag_MI4</t>
+    <t>MZ18063_mag_MI4</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl13</t>
+    <t>MZ18063_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl14</t>
+    <t>MZ18063_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl15</t>
+    <t>MZ18063_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18063_mag_gl16</t>
+    <t>MZ18063_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18063_mag13_MI</t>
+    <t>MZ18063_mag13_MI</t>
   </si>
   <si>
-    <t>MZ_18062_tp1H_gl2</t>
+    <t>MZ18062_tp1H_gl2</t>
   </si>
   <si>
-    <t>MZ_18062_tp5H_MI</t>
+    <t>MZ18062_tp5H_MI</t>
   </si>
   <si>
-    <t>MZ_18062_tp5H_gl</t>
+    <t>MZ18062_tp5H_gl</t>
   </si>
   <si>
-    <t>MZ_18062_mag03H_gl</t>
+    <t>MZ18062_mag03H_gl</t>
   </si>
   <si>
-    <t>MZ_18062_tp3H_gl</t>
+    <t>MZ18062_tp3H_gl</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl1</t>
+    <t>MZ18062_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl2</t>
+    <t>MZ18062_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl3</t>
+    <t>MZ18062_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl4</t>
+    <t>MZ18062_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl5</t>
+    <t>MZ18062_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl6</t>
+    <t>MZ18062_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl7</t>
+    <t>MZ18062_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl8</t>
+    <t>MZ18062_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18062_mag_gl9</t>
+    <t>MZ18062_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18062_mag10_gl</t>
+    <t>MZ18062_mag10_gl</t>
   </si>
   <si>
-    <t>MZ_18061_mag01H_gl</t>
+    <t>MZ18061_mag01H_gl</t>
   </si>
   <si>
-    <t>MZ_18061_mag01H_pxMI</t>
+    <t>MZ18061_mag01H_pxMI</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl1</t>
+    <t>MZ18061_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18061_mag04_gl</t>
+    <t>MZ18061_mag04_gl</t>
   </si>
   <si>
-    <t>MZ_18061_mag16H_gl</t>
+    <t>MZ18061_mag16H_gl</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl2</t>
+    <t>MZ18061_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl3</t>
+    <t>MZ18061_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl4</t>
+    <t>MZ18061_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl5</t>
+    <t>MZ18061_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18061_mag_MI</t>
+    <t>MZ18061_mag_MI</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl13</t>
+    <t>MZ18060_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl6</t>
+    <t>MZ18061_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl7</t>
+    <t>MZ18061_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl8</t>
+    <t>MZ18061_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl9</t>
+    <t>MZ18061_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl10</t>
+    <t>MZ18061_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl11</t>
+    <t>MZ18061_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl12</t>
+    <t>MZ18061_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl13</t>
+    <t>MZ18061_mag_gl13</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl14</t>
+    <t>MZ18061_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl15</t>
+    <t>MZ18061_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl16</t>
+    <t>MZ18061_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl17</t>
+    <t>MZ18061_mag_gl17</t>
   </si>
   <si>
-    <t>MZ_18061_mag_MI2</t>
+    <t>MZ18061_mag_MI2</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl18</t>
+    <t>MZ18061_mag_gl18</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl19</t>
+    <t>MZ18061_mag_gl19</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl20</t>
+    <t>MZ18061_mag_gl20</t>
   </si>
   <si>
-    <t>MZ_18059_gl13</t>
+    <t>MZ18059_gl13</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl21</t>
+    <t>MZ18061_mag_gl21</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl22</t>
+    <t>MZ18061_mag_gl22</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl23</t>
+    <t>MZ18061_mag_gl23</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl24</t>
+    <t>MZ18061_mag_gl24</t>
   </si>
   <si>
-    <t>MZ_18061_mag_gl25</t>
+    <t>MZ18061_mag_gl25</t>
   </si>
   <si>
-    <t>MZ_18060_mag01H_gl</t>
+    <t>MZ18060_mag01H_gl</t>
   </si>
   <si>
-    <t>MZ_18060_tp3H_gl</t>
+    <t>MZ18060_tp3H_gl</t>
   </si>
   <si>
-    <t>MZ_18060_mag18H_MI</t>
+    <t>MZ18060_mag18H_MI</t>
   </si>
   <si>
-    <t>MZ_18060_mag20_MI</t>
+    <t>MZ18060_mag20_MI</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl1</t>
+    <t>MZ18060_mag_gl1</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl2</t>
+    <t>MZ18060_mag_gl2</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl3</t>
+    <t>MZ18060_mag_gl3</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl4</t>
+    <t>MZ18060_mag_gl4</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl5</t>
+    <t>MZ18060_mag_gl5</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl6</t>
+    <t>MZ18060_mag_gl6</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl7</t>
+    <t>MZ18060_mag_gl7</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl8</t>
+    <t>MZ18060_mag_gl8</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl9</t>
+    <t>MZ18060_mag_gl9</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl10</t>
+    <t>MZ18060_mag_gl10</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl11</t>
+    <t>MZ18060_mag_gl11</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl12</t>
+    <t>MZ18060_mag_gl12</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl14</t>
+    <t>MZ18060_mag_gl14</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl15</t>
+    <t>MZ18060_mag_gl15</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl16</t>
+    <t>MZ18060_mag_gl16</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl17</t>
+    <t>MZ18060_mag_gl17</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl18</t>
+    <t>MZ18060_mag_gl18</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl19</t>
+    <t>MZ18060_mag_gl19</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl20</t>
+    <t>MZ18060_mag_gl20</t>
   </si>
   <si>
-    <t>MZ_18060_mag_gl21</t>
+    <t>MZ18060_mag_gl21</t>
   </si>
   <si>
-    <t>MZ_18059_gl01</t>
+    <t>MZ18059_gl01</t>
   </si>
   <si>
-    <t>MZ_18059_gl02</t>
+    <t>MZ18059_gl02</t>
   </si>
   <si>
-    <t>MZ_18059_gl03_unk</t>
+    <t>MZ18059_gl03_unk</t>
   </si>
   <si>
-    <t>MZ_18059_gl04</t>
+    <t>MZ18059_gl04</t>
   </si>
   <si>
-    <t>MZ_18059_gl05</t>
+    <t>MZ18059_gl05</t>
   </si>
   <si>
-    <t>MZ_18059_gl06</t>
+    <t>MZ18059_gl06</t>
   </si>
   <si>
-    <t>MZ_18059_gl07</t>
+    <t>MZ18059_gl07</t>
   </si>
   <si>
-    <t>MZ_18059_gl08_unk</t>
+    <t>MZ18059_gl08_unk</t>
   </si>
   <si>
-    <t>MZ_18059_gl09</t>
+    <t>MZ18059_gl09</t>
   </si>
   <si>
-    <t>MZ_18059_gl10</t>
+    <t>MZ18059_gl10</t>
   </si>
   <si>
-    <t>MZ_18059_gl11</t>
+    <t>MZ18059_gl11</t>
   </si>
   <si>
-    <t>MZ_18059_gl12</t>
+    <t>MZ18059_gl12</t>
   </si>
   <si>
-    <t>MZ_18059_gl14</t>
+    <t>MZ18059_gl14</t>
   </si>
   <si>
-    <t>MZ_18059_gl15</t>
+    <t>MZ18059_gl15</t>
   </si>
   <si>
-    <t>MZ_18059_gl16_bas</t>
+    <t>MZ18059_gl16_bas</t>
   </si>
   <si>
-    <t>MZ_18059_gl17_bas</t>
+    <t>MZ18059_gl17_bas</t>
   </si>
   <si>
-    <t>MZ_18059_MI01</t>
+    <t>MZ18059_MI01</t>
   </si>
   <si>
-    <t>MZ_18059_gl18</t>
+    <t>MZ18059_gl18</t>
   </si>
   <si>
-    <t>MZ_18059_gl19</t>
+    <t>MZ18059_gl19</t>
   </si>
   <si>
-    <t>MZ_18036_gl1</t>
+    <t>MZ18036_gl1</t>
   </si>
   <si>
-    <t>MZ_18036_incl_gl1</t>
+    <t>MZ18036_incl_gl1</t>
   </si>
   <si>
-    <t>MZ_18036_incl_gl2</t>
+    <t>MZ18036_incl_gl2</t>
   </si>
   <si>
-    <t>MZ_18036_gl2</t>
+    <t>MZ18036_gl2</t>
   </si>
   <si>
-    <t>MZ_18036_gl3</t>
+    <t>MZ18036_gl3</t>
   </si>
   <si>
-    <t>MZ_18036_gl4</t>
+    <t>MZ18036_gl4</t>
   </si>
   <si>
-    <t>MZ_18036_gl5</t>
+    <t>MZ18036_gl5</t>
   </si>
   <si>
-    <t>MZ_18036_gl6</t>
+    <t>MZ18036_gl6</t>
   </si>
   <si>
-    <t>MZ_18036_gl7</t>
+    <t>MZ18036_gl7</t>
   </si>
   <si>
-    <t>MZ_18036_gl8</t>
+    <t>MZ18036_gl8</t>
   </si>
   <si>
-    <t>MZ_18036_gl9</t>
+    <t>MZ18036_gl9</t>
   </si>
   <si>
-    <t>MZ_18036_gl10</t>
+    <t>MZ18036_gl10</t>
   </si>
 </sst>
 </file>
@@ -1323,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AD48FF-8B5E-4EEA-97CD-35B4D7DDB9AA}">
   <dimension ref="A1:BQ297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -63425,6 +63425,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB82DA25EC93B46B6EA5EEB3671FB17" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fd25cc0c24385bdc8ae6ef38248b09e9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="66797d70-b906-44d2-a3bb-ada340d2aa57" xmlns:ns4="cbed760c-3c65-4eb3-ac92-5ff8d62c8de2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73685f004e6d6fdd1634bcbcc08e5c3b" ns3:_="" ns4:_="">
     <xsd:import namespace="66797d70-b906-44d2-a3bb-ada340d2aa57"/>
@@ -63621,12 +63627,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -63637,6 +63637,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1B0369-E367-4EB2-8A9E-F5DC7ACF1E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DC8DFC-40E8-4D26-BC8D-5F5D65740673}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63655,15 +63664,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA1B0369-E367-4EB2-8A9E-F5DC7ACF1E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C75E953-3A86-4126-A37D-DF79D1887B1E}">
   <ds:schemaRefs>
